--- a/Projects/INBEVCI_SAND/Data/Template.xlsx
+++ b/Projects/INBEVCI_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Top Brand Facings" sheetId="1" state="visible" r:id="rId2"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="96">
   <si>
     <t>Attribute_5</t>
   </si>
@@ -185,10 +185,10 @@
     <t>SKUs Competitor</t>
   </si>
   <si>
-    <t>8410590004890, 8410590004944</t>
-  </si>
-  <si>
-    <t>3155930006015, 3155930001355</t>
+    <t>8410590004890, 8410590004944, 8410590040058, 8410590040065</t>
+  </si>
+  <si>
+    <t>3155930006015, 3155930001355, 3155932014995</t>
   </si>
   <si>
     <t>District</t>
@@ -354,9 +354,6 @@
   </si>
   <si>
     <t>Tropical 33 Can toghether</t>
-  </si>
-  <si>
-    <t>Bandido  together</t>
   </si>
   <si>
     <t>La Gomera</t>
@@ -397,7 +394,7 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -444,6 +441,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -614,7 +617,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -747,6 +750,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -775,15 +782,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -916,10 +923,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.4534412955466"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -4599,12 +4606,13 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.246963562753"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.3927125506073"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
@@ -4637,10 +4645,10 @@
       <c r="A3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="34" t="n">
+      <c r="C3" s="35" t="n">
         <v>43163</v>
       </c>
       <c r="D3" s="10"/>
@@ -4648,208 +4656,208 @@
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="35"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="35"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="35"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14"/>
       <c r="B7" s="19"/>
-      <c r="C7" s="35"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="35"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="35"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="35"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="35"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="35"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="36"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="35"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="35"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="36"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="35"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="35"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="35"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="35"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="35"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="35"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="35"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="35"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="35"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14"/>
       <c r="B26" s="25"/>
-      <c r="C26" s="35"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="14"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="35"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="35"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14"/>
       <c r="B29" s="18"/>
-      <c r="C29" s="35"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
-      <c r="C30" s="36"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="35"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
-      <c r="C32" s="35"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="36"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="35"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="35"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
-      <c r="C36" s="35"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3">
+  <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
+  <conditionalFormatting sqref="B3">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
@@ -4877,51 +4885,51 @@
   </sheetPr>
   <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -4930,16 +4938,16 @@
       <c r="D3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="43" t="n">
+      <c r="E3" s="44" t="n">
         <v>8414161001059</v>
       </c>
       <c r="F3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -4948,16 +4956,16 @@
       <c r="D4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="43" t="n">
+      <c r="E4" s="44" t="n">
         <v>8414161001073</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -4966,16 +4974,16 @@
       <c r="D5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="43" t="n">
+      <c r="E5" s="44" t="n">
         <v>8414161001141</v>
       </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -4984,16 +4992,16 @@
       <c r="D6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="43" t="n">
+      <c r="E6" s="44" t="n">
         <v>8414161001172</v>
       </c>
       <c r="F6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -5002,16 +5010,16 @@
       <c r="D7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="43" t="n">
+      <c r="E7" s="44" t="n">
         <v>8414161001202</v>
       </c>
       <c r="F7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -5020,16 +5028,16 @@
       <c r="D8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="43" t="n">
+      <c r="E8" s="44" t="n">
         <v>8414161000038</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="43" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -5038,16 +5046,16 @@
       <c r="D9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="43" t="n">
+      <c r="E9" s="44" t="n">
         <v>8414161000007</v>
       </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="43" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -5056,16 +5064,16 @@
       <c r="D10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="43" t="n">
+      <c r="E10" s="44" t="n">
         <v>8414161000052</v>
       </c>
       <c r="F10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="43" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -5074,16 +5082,16 @@
       <c r="D11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="43" t="n">
+      <c r="E11" s="44" t="n">
         <v>8410590200117</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="43" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -5092,16 +5100,16 @@
       <c r="D12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="43" t="n">
+      <c r="E12" s="44" t="n">
         <v>8410590200094</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -5110,16 +5118,16 @@
       <c r="D13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="43" t="n">
+      <c r="E13" s="44" t="n">
         <v>8414161001042</v>
       </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -5128,16 +5136,16 @@
       <c r="D14" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="43" t="n">
+      <c r="E14" s="44" t="n">
         <v>8414161001080</v>
       </c>
       <c r="F14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -5146,16 +5154,16 @@
       <c r="D15" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="43" t="n">
+      <c r="E15" s="44" t="n">
         <v>8414161001028</v>
       </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -5164,16 +5172,16 @@
       <c r="D16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="43" t="n">
+      <c r="E16" s="44" t="n">
         <v>8414161001219</v>
       </c>
       <c r="F16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="43" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -5182,16 +5190,16 @@
       <c r="D17" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="43" t="n">
+      <c r="E17" s="44" t="n">
         <v>75032715</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="43" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -5200,16 +5208,16 @@
       <c r="D18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="43" t="n">
+      <c r="E18" s="44" t="n">
         <v>5410228141266</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="43" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -5218,16 +5226,16 @@
       <c r="D19" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="43" t="n">
+      <c r="E19" s="44" t="n">
         <v>5410228142072</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="43" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -5236,16 +5244,16 @@
       <c r="D20" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="43" t="n">
+      <c r="E20" s="44" t="n">
         <v>5410228142218</v>
       </c>
       <c r="F20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="43" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -5254,13 +5262,13 @@
       <c r="D21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="43" t="n">
+      <c r="E21" s="44" t="n">
         <v>8410590004975</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -5272,13 +5280,13 @@
       <c r="D22" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="43" t="n">
+      <c r="E22" s="44" t="n">
         <v>8410590004982</v>
       </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -5290,13 +5298,13 @@
       <c r="D23" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="43" t="n">
+      <c r="E23" s="44" t="n">
         <v>8410590004999</v>
       </c>
       <c r="F23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -5308,13 +5316,13 @@
       <c r="D24" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="43" t="n">
+      <c r="E24" s="44" t="n">
         <v>8410590004944</v>
       </c>
       <c r="F24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -5326,13 +5334,13 @@
       <c r="D25" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="43" t="n">
+      <c r="E25" s="44" t="n">
         <v>3155930001355</v>
       </c>
       <c r="F25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -5344,13 +5352,13 @@
       <c r="D26" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="43" t="n">
+      <c r="E26" s="44" t="n">
         <v>8410590004890</v>
       </c>
       <c r="F26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -5362,13 +5370,13 @@
       <c r="D27" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="43" t="n">
+      <c r="E27" s="44" t="n">
         <v>8410590004890</v>
       </c>
       <c r="F27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -5380,13 +5388,13 @@
       <c r="D28" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="43" t="n">
+      <c r="E28" s="44" t="n">
         <v>8410590004890</v>
       </c>
       <c r="F28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -5398,13 +5406,13 @@
       <c r="D29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="43" t="n">
+      <c r="E29" s="44" t="n">
         <v>8410590004890</v>
       </c>
       <c r="F29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="14" t="s">
@@ -5416,13 +5424,13 @@
       <c r="D30" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="43" t="n">
+      <c r="E30" s="44" t="n">
         <v>3155930006015</v>
       </c>
       <c r="F30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -5434,13 +5442,13 @@
       <c r="D31" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="43" t="n">
+      <c r="E31" s="44" t="n">
         <v>8414161041185</v>
       </c>
       <c r="F31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -5452,13 +5460,13 @@
       <c r="D32" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="43" t="n">
+      <c r="E32" s="44" t="n">
         <v>8410793262936</v>
       </c>
       <c r="F32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="14" t="s">
@@ -5470,13 +5478,13 @@
       <c r="D33" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="43" t="n">
+      <c r="E33" s="44" t="n">
         <v>8410590011416</v>
       </c>
       <c r="F33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="14" t="s">
@@ -5488,13 +5496,13 @@
       <c r="D34" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="43" t="n">
+      <c r="E34" s="44" t="n">
         <v>8410590010419</v>
       </c>
       <c r="F34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -5506,13 +5514,13 @@
       <c r="D35" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="43" t="n">
+      <c r="E35" s="44" t="n">
         <v>8414161001073</v>
       </c>
       <c r="F35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B36" s="14" t="s">
@@ -5524,13 +5532,13 @@
       <c r="D36" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="43" t="n">
+      <c r="E36" s="44" t="n">
         <v>8410590012543</v>
       </c>
       <c r="F36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B37" s="14" t="s">
@@ -5542,12 +5550,12 @@
       <c r="D37" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="43" t="n">
+      <c r="E37" s="44" t="n">
         <v>8414161001219</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="14" t="s">
@@ -5559,12 +5567,12 @@
       <c r="D38" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="43" t="n">
+      <c r="E38" s="44" t="n">
         <v>8414161001141</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="14" t="s">
@@ -5576,12 +5584,12 @@
       <c r="D39" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="43" t="n">
+      <c r="E39" s="44" t="n">
         <v>8414161001172</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B40" s="14" t="s">
@@ -5593,12 +5601,12 @@
       <c r="D40" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="43" t="n">
+      <c r="E40" s="44" t="n">
         <v>8414161001202</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -5610,12 +5618,12 @@
       <c r="D41" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="43" t="n">
+      <c r="E41" s="44" t="n">
         <v>8414161000038</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B42" s="14" t="s">
@@ -5627,12 +5635,12 @@
       <c r="D42" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="43" t="n">
+      <c r="E42" s="44" t="n">
         <v>8410590200117</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B43" s="14" t="s">
@@ -5644,12 +5652,12 @@
       <c r="D43" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="43" t="n">
+      <c r="E43" s="44" t="n">
         <v>8410590200094</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B44" s="14" t="s">
@@ -5661,12 +5669,12 @@
       <c r="D44" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="43" t="n">
+      <c r="E44" s="44" t="n">
         <v>8414161000052</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B45" s="14" t="s">
@@ -5678,12 +5686,12 @@
       <c r="D45" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="43" t="n">
+      <c r="E45" s="44" t="n">
         <v>8414161000007</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B46" s="14" t="s">
@@ -5695,12 +5703,12 @@
       <c r="D46" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="43" t="n">
+      <c r="E46" s="44" t="n">
         <v>8410590004975</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B47" s="14" t="s">
@@ -5712,12 +5720,12 @@
       <c r="D47" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="43" t="n">
+      <c r="E47" s="44" t="n">
         <v>8410590004982</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B48" s="14" t="s">
@@ -5729,12 +5737,12 @@
       <c r="D48" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="43" t="n">
+      <c r="E48" s="44" t="n">
         <v>8410590004999</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B49" s="14" t="s">
@@ -5746,12 +5754,12 @@
       <c r="D49" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="43" t="n">
+      <c r="E49" s="44" t="n">
         <v>75032715</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B50" s="14" t="s">
@@ -5763,12 +5771,12 @@
       <c r="D50" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E50" s="43" t="n">
+      <c r="E50" s="44" t="n">
         <v>5410228141266</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B51" s="14" t="s">
@@ -5780,12 +5788,12 @@
       <c r="D51" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="43" t="n">
+      <c r="E51" s="44" t="n">
         <v>5410228142072</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B52" s="14" t="s">
@@ -5797,12 +5805,12 @@
       <c r="D52" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="43" t="n">
+      <c r="E52" s="44" t="n">
         <v>5410228142218</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B53" s="14" t="s">
@@ -5814,12 +5822,12 @@
       <c r="D53" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="43" t="n">
+      <c r="E53" s="44" t="n">
         <v>8414161041185</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -5831,12 +5839,12 @@
       <c r="D54" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="43" t="n">
+      <c r="E54" s="44" t="n">
         <v>8410793262936</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B55" s="14" t="s">
@@ -5848,12 +5856,12 @@
       <c r="D55" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="43" t="n">
+      <c r="E55" s="44" t="n">
         <v>8414161001042</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B56" s="14" t="s">
@@ -5865,12 +5873,12 @@
       <c r="D56" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="43" t="n">
+      <c r="E56" s="44" t="n">
         <v>8414161001080</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B57" s="14" t="s">
@@ -5882,12 +5890,12 @@
       <c r="D57" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="43" t="n">
+      <c r="E57" s="44" t="n">
         <v>8410590004944</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B58" s="14" t="s">
@@ -5899,16 +5907,16 @@
       <c r="D58" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="43" t="n">
+      <c r="E58" s="44" t="n">
         <v>3155930001355</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>39</v>
@@ -5916,12 +5924,12 @@
       <c r="D59" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="43" t="n">
+      <c r="E59" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="14" t="s">
@@ -5933,12 +5941,12 @@
       <c r="D60" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="43" t="n">
+      <c r="E60" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B61" s="14" t="s">
@@ -5950,12 +5958,12 @@
       <c r="D61" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E61" s="43" t="n">
+      <c r="E61" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B62" s="14" t="s">
@@ -5967,12 +5975,12 @@
       <c r="D62" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E62" s="43" t="n">
+      <c r="E62" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B63" s="14" t="s">
@@ -5984,13 +5992,13 @@
       <c r="D63" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="43" t="n">
+      <c r="E63" s="44" t="n">
         <v>3155930006015</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="41" t="s">
-        <v>88</v>
+      <c r="A64" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>38</v>
@@ -6001,13 +6009,13 @@
       <c r="D64" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="43" t="n">
+      <c r="E64" s="44" t="n">
         <v>8414161001059</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="41" t="s">
-        <v>88</v>
+      <c r="A65" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>38</v>
@@ -6018,13 +6026,13 @@
       <c r="D65" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E65" s="43" t="n">
+      <c r="E65" s="44" t="n">
         <v>8414161001073</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="41" t="s">
-        <v>88</v>
+      <c r="A66" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>42</v>
@@ -6035,13 +6043,13 @@
       <c r="D66" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E66" s="43" t="n">
+      <c r="E66" s="44" t="n">
         <v>8414161001141</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="41" t="s">
-        <v>88</v>
+      <c r="A67" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>42</v>
@@ -6052,13 +6060,13 @@
       <c r="D67" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="43" t="n">
+      <c r="E67" s="44" t="n">
         <v>8414161001172</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="41" t="s">
-        <v>88</v>
+      <c r="A68" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>42</v>
@@ -6069,13 +6077,13 @@
       <c r="D68" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E68" s="43" t="n">
+      <c r="E68" s="44" t="n">
         <v>8414161001202</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="41" t="s">
-        <v>88</v>
+      <c r="A69" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>42</v>
@@ -6086,13 +6094,13 @@
       <c r="D69" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E69" s="43" t="n">
+      <c r="E69" s="44" t="n">
         <v>8414161000038</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="41" t="s">
-        <v>88</v>
+      <c r="A70" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>47</v>
@@ -6103,13 +6111,13 @@
       <c r="D70" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E70" s="43" t="n">
+      <c r="E70" s="44" t="n">
         <v>8414161000007</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="41" t="s">
-        <v>88</v>
+      <c r="A71" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>47</v>
@@ -6120,13 +6128,13 @@
       <c r="D71" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E71" s="43" t="n">
+      <c r="E71" s="44" t="n">
         <v>8414161000052</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="41" t="s">
-        <v>88</v>
+      <c r="A72" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>50</v>
@@ -6137,13 +6145,13 @@
       <c r="D72" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E72" s="43" t="n">
+      <c r="E72" s="44" t="n">
         <v>8410590200117</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="41" t="s">
-        <v>88</v>
+      <c r="A73" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>50</v>
@@ -6154,13 +6162,13 @@
       <c r="D73" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E73" s="43" t="n">
+      <c r="E73" s="44" t="n">
         <v>8410590200094</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="41" t="s">
-        <v>88</v>
+      <c r="A74" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>53</v>
@@ -6171,13 +6179,13 @@
       <c r="D74" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E74" s="43" t="n">
+      <c r="E74" s="44" t="n">
         <v>8414161001042</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="41" t="s">
-        <v>88</v>
+      <c r="A75" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>53</v>
@@ -6188,13 +6196,13 @@
       <c r="D75" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="43" t="n">
+      <c r="E75" s="44" t="n">
         <v>8414161001080</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="41" t="s">
-        <v>88</v>
+      <c r="A76" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>56</v>
@@ -6205,13 +6213,13 @@
       <c r="D76" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E76" s="43" t="n">
+      <c r="E76" s="44" t="n">
         <v>8414161001028</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="41" t="s">
-        <v>88</v>
+      <c r="A77" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>56</v>
@@ -6222,13 +6230,13 @@
       <c r="D77" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E77" s="43" t="n">
+      <c r="E77" s="44" t="n">
         <v>8414161001219</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="41" t="s">
-        <v>88</v>
+      <c r="A78" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>59</v>
@@ -6239,13 +6247,13 @@
       <c r="D78" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E78" s="43" t="n">
+      <c r="E78" s="44" t="n">
         <v>75032715</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="41" t="s">
-        <v>88</v>
+      <c r="A79" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>59</v>
@@ -6256,13 +6264,13 @@
       <c r="D79" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E79" s="43" t="n">
+      <c r="E79" s="44" t="n">
         <v>5410228141266</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="41" t="s">
-        <v>88</v>
+      <c r="A80" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>62</v>
@@ -6273,13 +6281,13 @@
       <c r="D80" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E80" s="43" t="n">
+      <c r="E80" s="44" t="n">
         <v>5410228142072</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="41" t="s">
-        <v>88</v>
+      <c r="A81" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>62</v>
@@ -6290,13 +6298,13 @@
       <c r="D81" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E81" s="43" t="n">
+      <c r="E81" s="44" t="n">
         <v>5410228142218</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="41" t="s">
-        <v>88</v>
+      <c r="A82" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>65</v>
@@ -6307,13 +6315,13 @@
       <c r="D82" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E82" s="43" t="n">
+      <c r="E82" s="44" t="n">
         <v>8410590004975</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="41" t="s">
-        <v>88</v>
+      <c r="A83" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>65</v>
@@ -6324,13 +6332,13 @@
       <c r="D83" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E83" s="43" t="n">
+      <c r="E83" s="44" t="n">
         <v>8410590004982</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="41" t="s">
-        <v>88</v>
+      <c r="A84" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>65</v>
@@ -6341,13 +6349,13 @@
       <c r="D84" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E84" s="43" t="n">
+      <c r="E84" s="44" t="n">
         <v>8410590004999</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="41" t="s">
-        <v>88</v>
+      <c r="A85" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>69</v>
@@ -6358,13 +6366,13 @@
       <c r="D85" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E85" s="43" t="n">
+      <c r="E85" s="44" t="n">
         <v>8410590004944</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="41" t="s">
-        <v>88</v>
+      <c r="A86" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>69</v>
@@ -6375,13 +6383,13 @@
       <c r="D86" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E86" s="43" t="n">
+      <c r="E86" s="44" t="n">
         <v>3155930001355</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="41" t="s">
-        <v>88</v>
+      <c r="A87" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>69</v>
@@ -6392,13 +6400,13 @@
       <c r="D87" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E87" s="43" t="n">
+      <c r="E87" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="41" t="s">
-        <v>88</v>
+      <c r="A88" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>69</v>
@@ -6409,13 +6417,13 @@
       <c r="D88" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E88" s="43" t="n">
+      <c r="E88" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="41" t="s">
-        <v>88</v>
+      <c r="A89" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>69</v>
@@ -6426,13 +6434,13 @@
       <c r="D89" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E89" s="43" t="n">
+      <c r="E89" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="41" t="s">
-        <v>88</v>
+      <c r="A90" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>69</v>
@@ -6443,13 +6451,13 @@
       <c r="D90" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E90" s="43" t="n">
+      <c r="E90" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="41" t="s">
-        <v>88</v>
+      <c r="A91" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>69</v>
@@ -6460,13 +6468,13 @@
       <c r="D91" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E91" s="43" t="n">
+      <c r="E91" s="44" t="n">
         <v>3155930006015</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="41" t="s">
-        <v>88</v>
+      <c r="A92" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>77</v>
@@ -6477,13 +6485,13 @@
       <c r="D92" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E92" s="43" t="n">
+      <c r="E92" s="44" t="n">
         <v>8414161041185</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="41" t="s">
-        <v>88</v>
+      <c r="A93" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>77</v>
@@ -6494,13 +6502,13 @@
       <c r="D93" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E93" s="43" t="n">
+      <c r="E93" s="44" t="n">
         <v>8410793262936</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="41" t="s">
-        <v>89</v>
+      <c r="A94" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>81</v>
@@ -6511,13 +6519,13 @@
       <c r="D94" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E94" s="43" t="n">
+      <c r="E94" s="44" t="n">
         <v>8410590011416</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="41" t="s">
-        <v>89</v>
+      <c r="A95" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>81</v>
@@ -6528,13 +6536,13 @@
       <c r="D95" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="43" t="n">
+      <c r="E95" s="44" t="n">
         <v>8410590010419</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="41" t="s">
-        <v>89</v>
+      <c r="A96" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>81</v>
@@ -6545,13 +6553,13 @@
       <c r="D96" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E96" s="43" t="n">
+      <c r="E96" s="44" t="n">
         <v>8414161001073</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="41" t="s">
-        <v>89</v>
+      <c r="A97" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>84</v>
@@ -6562,13 +6570,13 @@
       <c r="D97" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E97" s="43" t="n">
+      <c r="E97" s="44" t="n">
         <v>8410590012543</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="41" t="s">
-        <v>89</v>
+      <c r="A98" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>86</v>
@@ -6579,13 +6587,13 @@
       <c r="D98" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E98" s="43" t="n">
+      <c r="E98" s="44" t="n">
         <v>8414161001219</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="41" t="s">
-        <v>89</v>
+      <c r="A99" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>42</v>
@@ -6596,13 +6604,13 @@
       <c r="D99" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E99" s="43" t="n">
+      <c r="E99" s="44" t="n">
         <v>8414161001141</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="41" t="s">
-        <v>89</v>
+      <c r="A100" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>42</v>
@@ -6613,13 +6621,13 @@
       <c r="D100" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E100" s="43" t="n">
+      <c r="E100" s="44" t="n">
         <v>8414161001172</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="41" t="s">
-        <v>89</v>
+      <c r="A101" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>42</v>
@@ -6630,13 +6638,13 @@
       <c r="D101" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E101" s="43" t="n">
+      <c r="E101" s="44" t="n">
         <v>8414161001202</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="41" t="s">
-        <v>89</v>
+      <c r="A102" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>42</v>
@@ -6647,13 +6655,13 @@
       <c r="D102" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E102" s="43" t="n">
+      <c r="E102" s="44" t="n">
         <v>8414161000038</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="41" t="s">
-        <v>89</v>
+      <c r="A103" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>50</v>
@@ -6664,13 +6672,13 @@
       <c r="D103" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="43" t="n">
+      <c r="E103" s="44" t="n">
         <v>8410590200117</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="41" t="s">
-        <v>89</v>
+      <c r="A104" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>50</v>
@@ -6678,16 +6686,16 @@
       <c r="C104" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D104" s="44" t="s">
+      <c r="D104" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="43" t="n">
+      <c r="E104" s="44" t="n">
         <v>8410590200094</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="41" t="s">
-        <v>89</v>
+      <c r="A105" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>47</v>
@@ -6698,13 +6706,13 @@
       <c r="D105" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E105" s="43" t="n">
+      <c r="E105" s="44" t="n">
         <v>8414161000052</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="41" t="s">
-        <v>89</v>
+      <c r="A106" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>47</v>
@@ -6715,13 +6723,13 @@
       <c r="D106" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E106" s="43" t="n">
+      <c r="E106" s="44" t="n">
         <v>8414161000007</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="41" t="s">
-        <v>89</v>
+      <c r="A107" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>65</v>
@@ -6732,13 +6740,13 @@
       <c r="D107" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E107" s="43" t="n">
+      <c r="E107" s="44" t="n">
         <v>8410590004975</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="41" t="s">
-        <v>89</v>
+      <c r="A108" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>65</v>
@@ -6749,13 +6757,13 @@
       <c r="D108" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E108" s="43" t="n">
+      <c r="E108" s="44" t="n">
         <v>8410590004982</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="41" t="s">
-        <v>89</v>
+      <c r="A109" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>65</v>
@@ -6766,13 +6774,13 @@
       <c r="D109" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E109" s="43" t="n">
+      <c r="E109" s="44" t="n">
         <v>8410590004999</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="41" t="s">
-        <v>89</v>
+      <c r="A110" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>59</v>
@@ -6783,13 +6791,13 @@
       <c r="D110" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E110" s="43" t="n">
+      <c r="E110" s="44" t="n">
         <v>75032715</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="41" t="s">
-        <v>89</v>
+      <c r="A111" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>59</v>
@@ -6800,13 +6808,13 @@
       <c r="D111" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E111" s="43" t="n">
+      <c r="E111" s="44" t="n">
         <v>5410228141266</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="41" t="s">
-        <v>89</v>
+      <c r="A112" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>62</v>
@@ -6817,13 +6825,13 @@
       <c r="D112" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E112" s="43" t="n">
+      <c r="E112" s="44" t="n">
         <v>5410228142072</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="41" t="s">
-        <v>89</v>
+      <c r="A113" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>62</v>
@@ -6834,13 +6842,13 @@
       <c r="D113" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E113" s="43" t="n">
+      <c r="E113" s="44" t="n">
         <v>5410228142218</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="41" t="s">
-        <v>89</v>
+      <c r="A114" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>77</v>
@@ -6851,15 +6859,15 @@
       <c r="D114" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E114" s="43" t="n">
+      <c r="E114" s="44" t="n">
         <v>8414161041185</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B115" s="42" t="s">
+      <c r="A115" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B115" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C115" s="14" t="s">
@@ -6868,15 +6876,15 @@
       <c r="D115" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E115" s="43" t="n">
+      <c r="E115" s="44" t="n">
         <v>8410793262936</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B116" s="42" t="s">
+      <c r="A116" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B116" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C116" s="14" t="s">
@@ -6885,15 +6893,15 @@
       <c r="D116" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E116" s="43" t="n">
+      <c r="E116" s="44" t="n">
         <v>8414161001042</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B117" s="42" t="s">
+      <c r="A117" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B117" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C117" s="14" t="s">
@@ -6902,15 +6910,15 @@
       <c r="D117" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E117" s="43" t="n">
+      <c r="E117" s="44" t="n">
         <v>8414161001080</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B118" s="42" t="s">
+      <c r="A118" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B118" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C118" s="14" t="s">
@@ -6919,15 +6927,15 @@
       <c r="D118" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E118" s="43" t="n">
+      <c r="E118" s="44" t="n">
         <v>8410590004944</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B119" s="42" t="s">
+      <c r="A119" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B119" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C119" s="14" t="s">
@@ -6936,16 +6944,16 @@
       <c r="D119" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E119" s="43" t="n">
+      <c r="E119" s="44" t="n">
         <v>3155930001355</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="41" t="s">
-        <v>89</v>
+      <c r="A120" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C120" s="14" t="s">
         <v>39</v>
@@ -6953,13 +6961,13 @@
       <c r="D120" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E120" s="43" t="n">
+      <c r="E120" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="41" t="s">
-        <v>89</v>
+      <c r="A121" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>69</v>
@@ -6970,13 +6978,13 @@
       <c r="D121" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E121" s="43" t="n">
+      <c r="E121" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="41" t="s">
-        <v>89</v>
+      <c r="A122" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>69</v>
@@ -6987,13 +6995,13 @@
       <c r="D122" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E122" s="43" t="n">
+      <c r="E122" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="41" t="s">
-        <v>89</v>
+      <c r="A123" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>69</v>
@@ -7004,13 +7012,13 @@
       <c r="D123" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E123" s="43" t="n">
+      <c r="E123" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="41" t="s">
-        <v>89</v>
+      <c r="A124" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>69</v>
@@ -7021,16 +7029,16 @@
       <c r="D124" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E124" s="43" t="n">
+      <c r="E124" s="44" t="n">
         <v>3155930006015</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="C125" s="14" t="s">
         <v>39</v>
@@ -7038,16 +7046,16 @@
       <c r="D125" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E125" s="43" t="n">
+      <c r="E125" s="44" t="n">
         <v>8414161001059</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="41" t="s">
+      <c r="A126" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="C126" s="14" t="s">
         <v>39</v>
@@ -7055,16 +7063,16 @@
       <c r="D126" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E126" s="43" t="n">
+      <c r="E126" s="44" t="n">
         <v>8410590011416</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="41" t="s">
+      <c r="A127" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B127" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="C127" s="14" t="s">
         <v>39</v>
@@ -7072,16 +7080,16 @@
       <c r="D127" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E127" s="43" t="n">
+      <c r="E127" s="44" t="n">
         <v>8410590010419</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="41" t="s">
+      <c r="A128" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B128" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="C128" s="14" t="s">
         <v>39</v>
@@ -7089,13 +7097,13 @@
       <c r="D128" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E128" s="43" t="n">
+      <c r="E128" s="44" t="n">
         <v>8414161001073</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="41" t="s">
-        <v>90</v>
+      <c r="A129" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>84</v>
@@ -7106,13 +7114,13 @@
       <c r="D129" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E129" s="43" t="n">
+      <c r="E129" s="44" t="n">
         <v>8410590012543</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="41" t="s">
-        <v>90</v>
+      <c r="A130" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>86</v>
@@ -7123,13 +7131,13 @@
       <c r="D130" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E130" s="43" t="n">
+      <c r="E130" s="44" t="n">
         <v>8414161001219</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="41" t="s">
-        <v>90</v>
+      <c r="A131" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B131" s="14" t="s">
         <v>42</v>
@@ -7140,13 +7148,13 @@
       <c r="D131" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E131" s="43" t="n">
+      <c r="E131" s="44" t="n">
         <v>8414161001141</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="41" t="s">
-        <v>90</v>
+      <c r="A132" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B132" s="14" t="s">
         <v>42</v>
@@ -7157,13 +7165,13 @@
       <c r="D132" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E132" s="43" t="n">
+      <c r="E132" s="44" t="n">
         <v>8414161001172</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="41" t="s">
-        <v>90</v>
+      <c r="A133" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B133" s="14" t="s">
         <v>42</v>
@@ -7174,13 +7182,13 @@
       <c r="D133" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E133" s="43" t="n">
+      <c r="E133" s="44" t="n">
         <v>8414161001202</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="41" t="s">
-        <v>90</v>
+      <c r="A134" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B134" s="14" t="s">
         <v>42</v>
@@ -7191,13 +7199,13 @@
       <c r="D134" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E134" s="43" t="n">
+      <c r="E134" s="44" t="n">
         <v>8414161000038</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="41" t="s">
-        <v>90</v>
+      <c r="A135" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B135" s="14" t="s">
         <v>50</v>
@@ -7208,13 +7216,13 @@
       <c r="D135" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E135" s="43" t="n">
+      <c r="E135" s="44" t="n">
         <v>8410590200117</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="41" t="s">
-        <v>90</v>
+      <c r="A136" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B136" s="14" t="s">
         <v>50</v>
@@ -7225,13 +7233,13 @@
       <c r="D136" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E136" s="43" t="n">
+      <c r="E136" s="44" t="n">
         <v>8410590200094</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="41" t="s">
-        <v>90</v>
+      <c r="A137" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B137" s="14" t="s">
         <v>47</v>
@@ -7242,13 +7250,13 @@
       <c r="D137" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E137" s="43" t="n">
+      <c r="E137" s="44" t="n">
         <v>8414161000052</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="41" t="s">
-        <v>90</v>
+      <c r="A138" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B138" s="14" t="s">
         <v>47</v>
@@ -7259,13 +7267,13 @@
       <c r="D138" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E138" s="43" t="n">
+      <c r="E138" s="44" t="n">
         <v>8414161000007</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="41" t="s">
-        <v>90</v>
+      <c r="A139" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B139" s="14" t="s">
         <v>65</v>
@@ -7276,13 +7284,13 @@
       <c r="D139" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E139" s="43" t="n">
+      <c r="E139" s="44" t="n">
         <v>8410590004975</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="41" t="s">
-        <v>90</v>
+      <c r="A140" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B140" s="14" t="s">
         <v>65</v>
@@ -7293,15 +7301,15 @@
       <c r="D140" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E140" s="43" t="n">
+      <c r="E140" s="44" t="n">
         <v>8410590004982</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B141" s="42" t="s">
+      <c r="A141" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B141" s="43" t="s">
         <v>65</v>
       </c>
       <c r="C141" s="14" t="s">
@@ -7310,15 +7318,15 @@
       <c r="D141" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E141" s="43" t="n">
+      <c r="E141" s="44" t="n">
         <v>8410590004999</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B142" s="42" t="s">
+      <c r="A142" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B142" s="43" t="s">
         <v>59</v>
       </c>
       <c r="C142" s="14" t="s">
@@ -7327,15 +7335,15 @@
       <c r="D142" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E142" s="43" t="n">
+      <c r="E142" s="44" t="n">
         <v>75032715</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B143" s="42" t="s">
+      <c r="A143" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B143" s="43" t="s">
         <v>59</v>
       </c>
       <c r="C143" s="14" t="s">
@@ -7344,15 +7352,15 @@
       <c r="D143" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E143" s="43" t="n">
+      <c r="E143" s="44" t="n">
         <v>5410228141266</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B144" s="42" t="s">
+      <c r="A144" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B144" s="43" t="s">
         <v>62</v>
       </c>
       <c r="C144" s="14" t="s">
@@ -7361,15 +7369,15 @@
       <c r="D144" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E144" s="43" t="n">
+      <c r="E144" s="44" t="n">
         <v>5410228142072</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B145" s="42" t="s">
+      <c r="A145" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B145" s="43" t="s">
         <v>62</v>
       </c>
       <c r="C145" s="14" t="s">
@@ -7378,15 +7386,15 @@
       <c r="D145" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E145" s="43" t="n">
+      <c r="E145" s="44" t="n">
         <v>5410228142218</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B146" s="42" t="s">
+      <c r="A146" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B146" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C146" s="14" t="s">
@@ -7395,15 +7403,15 @@
       <c r="D146" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E146" s="43" t="n">
+      <c r="E146" s="44" t="n">
         <v>8414161041185</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B147" s="42" t="s">
+      <c r="A147" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B147" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C147" s="14" t="s">
@@ -7412,15 +7420,15 @@
       <c r="D147" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E147" s="43" t="n">
+      <c r="E147" s="44" t="n">
         <v>8410793262936</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B148" s="42" t="s">
+      <c r="A148" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B148" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C148" s="14" t="s">
@@ -7429,15 +7437,15 @@
       <c r="D148" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E148" s="43" t="n">
+      <c r="E148" s="44" t="n">
         <v>8414161001042</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B149" s="42" t="s">
+      <c r="A149" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B149" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C149" s="14" t="s">
@@ -7446,15 +7454,15 @@
       <c r="D149" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E149" s="43" t="n">
+      <c r="E149" s="44" t="n">
         <v>8414161001080</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B150" s="42" t="s">
+      <c r="A150" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B150" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C150" s="14" t="s">
@@ -7463,15 +7471,15 @@
       <c r="D150" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E150" s="43" t="n">
+      <c r="E150" s="44" t="n">
         <v>8410590004944</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B151" s="42" t="s">
+      <c r="A151" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B151" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C151" s="14" t="s">
@@ -7480,16 +7488,16 @@
       <c r="D151" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E151" s="43" t="n">
+      <c r="E151" s="44" t="n">
         <v>3155930001355</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B152" s="42" t="s">
-        <v>87</v>
+      <c r="A152" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B152" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="C152" s="14" t="s">
         <v>39</v>
@@ -7497,15 +7505,15 @@
       <c r="D152" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E152" s="43" t="n">
+      <c r="E152" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B153" s="42" t="s">
+      <c r="A153" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B153" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C153" s="14" t="s">
@@ -7514,15 +7522,15 @@
       <c r="D153" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E153" s="43" t="n">
+      <c r="E153" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B154" s="42" t="s">
+      <c r="A154" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B154" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C154" s="14" t="s">
@@ -7531,15 +7539,15 @@
       <c r="D154" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E154" s="43" t="n">
+      <c r="E154" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B155" s="42" t="s">
+      <c r="A155" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B155" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C155" s="14" t="s">
@@ -7548,15 +7556,15 @@
       <c r="D155" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E155" s="43" t="n">
+      <c r="E155" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B156" s="42" t="s">
+      <c r="A156" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B156" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C156" s="14" t="s">
@@ -7565,15 +7573,15 @@
       <c r="D156" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E156" s="43" t="n">
+      <c r="E156" s="44" t="n">
         <v>3155930006015</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B157" s="42" t="s">
+      <c r="A157" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B157" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C157" s="14" t="s">
@@ -7582,15 +7590,15 @@
       <c r="D157" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E157" s="43" t="n">
+      <c r="E157" s="44" t="n">
         <v>8414161001028</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B158" s="42" t="s">
+      <c r="A158" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B158" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C158" s="14" t="s">
@@ -7599,15 +7607,15 @@
       <c r="D158" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E158" s="43" t="n">
+      <c r="E158" s="44" t="n">
         <v>8414161001219</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B159" s="42" t="s">
+      <c r="A159" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B159" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C159" s="14" t="s">
@@ -7616,13 +7624,13 @@
       <c r="D159" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E159" s="43" t="n">
+      <c r="E159" s="44" t="n">
         <v>8414161001059</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="41" t="s">
-        <v>90</v>
+      <c r="A160" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B160" s="14" t="s">
         <v>38</v>
@@ -7633,16 +7641,16 @@
       <c r="D160" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E160" s="43" t="n">
+      <c r="E160" s="44" t="n">
         <v>8414161001073</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="41" t="s">
-        <v>92</v>
+      <c r="A161" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C161" s="14" t="s">
         <v>39</v>
@@ -7650,16 +7658,16 @@
       <c r="D161" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E161" s="43" t="n">
+      <c r="E161" s="44" t="n">
         <v>8414161001059</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="41" t="s">
-        <v>92</v>
+      <c r="A162" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C162" s="14" t="s">
         <v>39</v>
@@ -7667,16 +7675,16 @@
       <c r="D162" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E162" s="43" t="n">
+      <c r="E162" s="44" t="n">
         <v>8410590011416</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="41" t="s">
-        <v>92</v>
+      <c r="A163" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C163" s="14" t="s">
         <v>39</v>
@@ -7684,16 +7692,16 @@
       <c r="D163" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E163" s="43" t="n">
+      <c r="E163" s="44" t="n">
         <v>8410590010419</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="41" t="s">
-        <v>92</v>
+      <c r="A164" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C164" s="14" t="s">
         <v>39</v>
@@ -7701,13 +7709,13 @@
       <c r="D164" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E164" s="43" t="n">
+      <c r="E164" s="44" t="n">
         <v>8414161001073</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="41" t="s">
-        <v>92</v>
+      <c r="A165" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B165" s="14" t="s">
         <v>84</v>
@@ -7718,13 +7726,13 @@
       <c r="D165" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E165" s="43" t="n">
+      <c r="E165" s="44" t="n">
         <v>8410590012543</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="41" t="s">
-        <v>92</v>
+      <c r="A166" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B166" s="14" t="s">
         <v>86</v>
@@ -7735,13 +7743,13 @@
       <c r="D166" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E166" s="43" t="n">
+      <c r="E166" s="44" t="n">
         <v>8414161001219</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="41" t="s">
-        <v>92</v>
+      <c r="A167" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B167" s="14" t="s">
         <v>42</v>
@@ -7752,13 +7760,13 @@
       <c r="D167" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E167" s="43" t="n">
+      <c r="E167" s="44" t="n">
         <v>8414161001141</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="41" t="s">
-        <v>92</v>
+      <c r="A168" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B168" s="14" t="s">
         <v>42</v>
@@ -7769,13 +7777,13 @@
       <c r="D168" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E168" s="43" t="n">
+      <c r="E168" s="44" t="n">
         <v>8414161001172</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="41" t="s">
-        <v>92</v>
+      <c r="A169" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B169" s="14" t="s">
         <v>42</v>
@@ -7786,13 +7794,13 @@
       <c r="D169" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E169" s="43" t="n">
+      <c r="E169" s="44" t="n">
         <v>8414161001202</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="41" t="s">
-        <v>92</v>
+      <c r="A170" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>42</v>
@@ -7803,13 +7811,13 @@
       <c r="D170" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E170" s="43" t="n">
+      <c r="E170" s="44" t="n">
         <v>8414161000038</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="41" t="s">
-        <v>92</v>
+      <c r="A171" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B171" s="14" t="s">
         <v>50</v>
@@ -7820,13 +7828,13 @@
       <c r="D171" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E171" s="43" t="n">
+      <c r="E171" s="44" t="n">
         <v>8410590200117</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="41" t="s">
-        <v>92</v>
+      <c r="A172" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B172" s="14" t="s">
         <v>50</v>
@@ -7837,13 +7845,13 @@
       <c r="D172" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E172" s="43" t="n">
+      <c r="E172" s="44" t="n">
         <v>8410590200094</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="41" t="s">
-        <v>92</v>
+      <c r="A173" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B173" s="14" t="s">
         <v>47</v>
@@ -7854,13 +7862,13 @@
       <c r="D173" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E173" s="43" t="n">
+      <c r="E173" s="44" t="n">
         <v>8414161000052</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="41" t="s">
-        <v>92</v>
+      <c r="A174" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B174" s="14" t="s">
         <v>47</v>
@@ -7871,13 +7879,13 @@
       <c r="D174" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E174" s="43" t="n">
+      <c r="E174" s="44" t="n">
         <v>8414161000007</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="41" t="s">
-        <v>92</v>
+      <c r="A175" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B175" s="14" t="s">
         <v>65</v>
@@ -7888,13 +7896,13 @@
       <c r="D175" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E175" s="43" t="n">
+      <c r="E175" s="44" t="n">
         <v>8410590004975</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="41" t="s">
-        <v>92</v>
+      <c r="A176" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>65</v>
@@ -7905,13 +7913,13 @@
       <c r="D176" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E176" s="43" t="n">
+      <c r="E176" s="44" t="n">
         <v>8410590004982</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="41" t="s">
-        <v>92</v>
+      <c r="A177" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>65</v>
@@ -7922,13 +7930,13 @@
       <c r="D177" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E177" s="43" t="n">
+      <c r="E177" s="44" t="n">
         <v>8410590004999</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="41" t="s">
-        <v>92</v>
+      <c r="A178" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B178" s="14" t="s">
         <v>59</v>
@@ -7939,13 +7947,13 @@
       <c r="D178" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E178" s="43" t="n">
+      <c r="E178" s="44" t="n">
         <v>75032715</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="41" t="s">
-        <v>92</v>
+      <c r="A179" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B179" s="14" t="s">
         <v>59</v>
@@ -7956,13 +7964,13 @@
       <c r="D179" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E179" s="43" t="n">
+      <c r="E179" s="44" t="n">
         <v>5410228141266</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="41" t="s">
-        <v>92</v>
+      <c r="A180" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B180" s="14" t="s">
         <v>62</v>
@@ -7973,13 +7981,13 @@
       <c r="D180" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E180" s="43" t="n">
+      <c r="E180" s="44" t="n">
         <v>5410228142072</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="41" t="s">
-        <v>92</v>
+      <c r="A181" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B181" s="14" t="s">
         <v>62</v>
@@ -7990,13 +7998,13 @@
       <c r="D181" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E181" s="43" t="n">
+      <c r="E181" s="44" t="n">
         <v>5410228142218</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="41" t="s">
-        <v>92</v>
+      <c r="A182" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B182" s="14" t="s">
         <v>77</v>
@@ -8007,13 +8015,13 @@
       <c r="D182" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E182" s="43" t="n">
+      <c r="E182" s="44" t="n">
         <v>8414161041185</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="41" t="s">
-        <v>92</v>
+      <c r="A183" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B183" s="14" t="s">
         <v>77</v>
@@ -8024,13 +8032,13 @@
       <c r="D183" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E183" s="43" t="n">
+      <c r="E183" s="44" t="n">
         <v>8410793262936</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="41" t="s">
-        <v>92</v>
+      <c r="A184" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B184" s="14" t="s">
         <v>53</v>
@@ -8041,13 +8049,13 @@
       <c r="D184" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E184" s="43" t="n">
+      <c r="E184" s="44" t="n">
         <v>8414161001042</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="41" t="s">
-        <v>92</v>
+      <c r="A185" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B185" s="14" t="s">
         <v>53</v>
@@ -8058,13 +8066,13 @@
       <c r="D185" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E185" s="43" t="n">
+      <c r="E185" s="44" t="n">
         <v>8414161001080</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="41" t="s">
-        <v>92</v>
+      <c r="A186" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B186" s="14" t="s">
         <v>69</v>
@@ -8075,13 +8083,13 @@
       <c r="D186" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E186" s="43" t="n">
+      <c r="E186" s="44" t="n">
         <v>8410590004944</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="41" t="s">
-        <v>92</v>
+      <c r="A187" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B187" s="14" t="s">
         <v>69</v>
@@ -8092,16 +8100,16 @@
       <c r="D187" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E187" s="43" t="n">
+      <c r="E187" s="44" t="n">
         <v>3155930001355</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="41" t="s">
-        <v>92</v>
+      <c r="A188" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C188" s="14" t="s">
         <v>39</v>
@@ -8109,13 +8117,13 @@
       <c r="D188" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E188" s="43" t="n">
+      <c r="E188" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="41" t="s">
-        <v>92</v>
+      <c r="A189" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B189" s="14" t="s">
         <v>69</v>
@@ -8126,13 +8134,13 @@
       <c r="D189" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E189" s="43" t="n">
+      <c r="E189" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="41" t="s">
-        <v>92</v>
+      <c r="A190" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B190" s="14" t="s">
         <v>69</v>
@@ -8143,13 +8151,13 @@
       <c r="D190" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E190" s="43" t="n">
+      <c r="E190" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="41" t="s">
-        <v>92</v>
+      <c r="A191" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B191" s="14" t="s">
         <v>69</v>
@@ -8160,13 +8168,13 @@
       <c r="D191" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E191" s="43" t="n">
+      <c r="E191" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="41" t="s">
-        <v>92</v>
+      <c r="A192" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B192" s="14" t="s">
         <v>69</v>
@@ -8177,13 +8185,13 @@
       <c r="D192" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E192" s="43" t="n">
+      <c r="E192" s="44" t="n">
         <v>3155930006015</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="41" t="s">
-        <v>92</v>
+      <c r="A193" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B193" s="14" t="s">
         <v>56</v>
@@ -8194,13 +8202,13 @@
       <c r="D193" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E193" s="43" t="n">
+      <c r="E193" s="44" t="n">
         <v>8414161001028</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="41" t="s">
-        <v>92</v>
+      <c r="A194" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B194" s="14" t="s">
         <v>56</v>
@@ -8211,13 +8219,13 @@
       <c r="D194" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E194" s="43" t="n">
+      <c r="E194" s="44" t="n">
         <v>8414161001219</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="41" t="s">
-        <v>92</v>
+      <c r="A195" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B195" s="14" t="s">
         <v>38</v>
@@ -8228,13 +8236,13 @@
       <c r="D195" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E195" s="43" t="n">
+      <c r="E195" s="44" t="n">
         <v>8414161001059</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="41" t="s">
-        <v>92</v>
+      <c r="A196" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B196" s="14" t="s">
         <v>38</v>
@@ -8245,7 +8253,7 @@
       <c r="D196" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E196" s="43" t="n">
+      <c r="E196" s="44" t="n">
         <v>8414161001073</v>
       </c>
     </row>
@@ -8272,92 +8280,92 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="C2" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="n">
+      <c r="A3" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="n">
+      <c r="B3" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="46" t="n">
+      <c r="C3" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="46" t="n">
+      <c r="D3" s="47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="n">
+      <c r="A4" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="46" t="n">
+      <c r="B4" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="C4" s="46" t="n">
+      <c r="C4" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="46" t="n">
+      <c r="D4" s="47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="n">
+      <c r="A5" s="47" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="46" t="n">
+      <c r="B5" s="47" t="n">
         <v>6</v>
       </c>
-      <c r="C5" s="46" t="n">
+      <c r="C5" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="46" t="n">
+      <c r="D5" s="47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="n">
+      <c r="A6" s="47" t="n">
         <v>7</v>
       </c>
-      <c r="B6" s="46" t="n">
+      <c r="B6" s="47" t="n">
         <v>100</v>
       </c>
-      <c r="C6" s="46" t="n">
+      <c r="C6" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="46" t="n">
+      <c r="D6" s="47" t="n">
         <v>2</v>
       </c>
     </row>
